--- a/documents/recettes.xlsx
+++ b/documents/recettes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pl03jlu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pl03jlu\Documents\GitHub\P_Web2_Recettes\website\resources\image\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="87">
   <si>
     <t>Ingrédients</t>
   </si>
@@ -48,6 +49,11 @@
   </si>
   <si>
     <t>Pain au pavot, 120g de poulet pané maison (CH), cheddar, tomate snackée, iceberg et une délicieuse sauce aigre-douce maison.</t>
+  </si>
+  <si>
+    <t>Selon cuisson demandée, cuire la viande. Après l'avoir retournée, mettre le fromage.
+baisser la cuisson et commencer à dresser le burger en dorant le pain.
+mettre la sauce, les tomates, viande et la salade. C'est prêt</t>
   </si>
   <si>
     <t>Shifu</t>
@@ -143,9 +149,6 @@
   </si>
   <si>
     <t>salade de pates</t>
-  </si>
-  <si>
-    <t>filet de poisson, oeufs, crême fraîche,, ciboulette. vin blanc</t>
   </si>
   <si>
     <t>cuire le poisson dans un four à 240 °C au bain-marie.
@@ -176,9 +179,6 @@
 Couper les filaments pour égaliser les contours</t>
   </si>
   <si>
-    <t>Oeufs pochés</t>
-  </si>
-  <si>
     <t>Tomates, Oignon rouge, Coriandre, huile d'olive</t>
   </si>
   <si>
@@ -266,7 +266,7 @@
 lait bout, baisser le feu et laisser cuire pendant 20 minutes, retirer la gousse de vanille et verser le riz dans des ramequins</t>
   </si>
   <si>
-    <t>Riz au lait à la vanille</t>
+    <t>Riz au lit à la vanille</t>
   </si>
   <si>
     <t>Grosses figues, yaourt à la grecque, croquants aux amandes, cerneaux de noix, miel liquide</t>
@@ -337,7 +337,7 @@
     <t>Crème au jus de pomme</t>
   </si>
   <si>
-    <t>Selon cuisson demandée, cuire la viande. Après l'avoir retournée, mettre le fromage. Baisser la cuisson et commencer à dresser le burger en dorant le pain. Mettre la sauce, les tomates, viande et la salade. C'est prêt</t>
+    <t>filet de poisson, oeufs, crême fraîche, ciboulette, vin blanc</t>
   </si>
 </sst>
 </file>
@@ -676,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,186 +707,186 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
         <v>29</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>36</v>
@@ -895,7 +895,7 @@
         <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -909,7 +909,7 @@
         <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -919,207 +919,204 @@
       <c r="B17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C17" t="s">
-        <v>43</v>
-      </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" t="s">
         <v>45</v>
       </c>
-      <c r="C18" t="s">
-        <v>46</v>
-      </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" t="s">
         <v>48</v>
       </c>
-      <c r="C19" t="s">
-        <v>49</v>
-      </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" t="s">
         <v>51</v>
       </c>
-      <c r="C20" t="s">
-        <v>52</v>
-      </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" t="s">
         <v>54</v>
       </c>
-      <c r="C21" t="s">
-        <v>55</v>
-      </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" t="s">
         <v>57</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>58</v>
-      </c>
-      <c r="D22" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" t="s">
         <v>64</v>
       </c>
-      <c r="C24" t="s">
-        <v>65</v>
-      </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" t="s">
         <v>67</v>
       </c>
-      <c r="C25" t="s">
-        <v>68</v>
-      </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" t="s">
         <v>70</v>
       </c>
-      <c r="C26" t="s">
-        <v>71</v>
-      </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" t="s">
         <v>73</v>
       </c>
-      <c r="C27" t="s">
-        <v>74</v>
-      </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" t="s">
         <v>76</v>
       </c>
-      <c r="C28" t="s">
-        <v>77</v>
-      </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" t="s">
         <v>79</v>
       </c>
-      <c r="C29" t="s">
-        <v>80</v>
-      </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" t="s">
         <v>82</v>
       </c>
-      <c r="C30" t="s">
-        <v>83</v>
-      </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" t="s">
         <v>85</v>
       </c>
-      <c r="C31" t="s">
-        <v>86</v>
-      </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
